--- a/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDRADIOLOGY_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
+++ b/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDRADIOLOGY_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzamparo\Documents\FSE 2.0\it-fse-accreditamento\GATEWAY\S1#111MEDARCHIVER\MEDARCHIVER\MEDRADIOLOGY_FSE2.0\1.0.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A7B515-04F0-4811-8FA2-5D9EB70EA32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628BB6E0-0BF2-4B5D-A169-37EBC17C3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="941">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4870,6 +4870,15 @@
     <t>[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
 			ICD-9-CM @codeSystem='2.16.840.1.113883.6.103']</t>
+  </si>
+  <si>
+    <t>2024-06-03T09:28:53Z</t>
+  </si>
+  <si>
+    <t>0ceeeec1adf9cc7b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.5618d18dcd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5198,7 +5207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5341,6 +5350,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7803,10 +7813,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N93" sqref="N93"/>
+      <selection pane="bottomRight" activeCell="F377" sqref="F377:I377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21173,10 +21183,18 @@
       <c r="E377" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="F377" s="34"/>
-      <c r="G377" s="24"/>
-      <c r="H377" s="24"/>
-      <c r="I377" s="35"/>
+      <c r="F377" s="56">
+        <v>45446</v>
+      </c>
+      <c r="G377" t="s">
+        <v>938</v>
+      </c>
+      <c r="H377" t="s">
+        <v>939</v>
+      </c>
+      <c r="I377" t="s">
+        <v>940</v>
+      </c>
       <c r="J377" s="33" t="s">
         <v>139</v>
       </c>

--- a/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDRADIOLOGY_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
+++ b/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDRADIOLOGY_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzamparo\Documents\FSE 2.0\it-fse-accreditamento\GATEWAY\S1#111MEDARCHIVER\MEDARCHIVER\MEDRADIOLOGY_FSE2.0\1.0.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628BB6E0-0BF2-4B5D-A169-37EBC17C3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4782C8C1-7107-452E-9E02-A92D8D956E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="941">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -5328,6 +5328,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5350,7 +5351,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7813,10 +7813,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F377" sqref="F377:I377"/>
+      <selection pane="bottomRight" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7854,14 +7854,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>856</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7879,10 +7879,10 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="43" t="s">
         <v>859</v>
       </c>
@@ -7904,8 +7904,8 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="43" t="s">
         <v>857</v>
       </c>
@@ -7928,8 +7928,8 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="43" t="s">
         <v>858</v>
       </c>
@@ -7951,8 +7951,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -8450,9 +8450,6 @@
       <c r="J20" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K20" t="s">
-        <v>868</v>
-      </c>
       <c r="L20" t="s">
         <v>868</v>
       </c>
@@ -8500,9 +8497,6 @@
       <c r="J21" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K21" t="s">
-        <v>868</v>
-      </c>
       <c r="L21" t="s">
         <v>868</v>
       </c>
@@ -8549,9 +8543,6 @@
       </c>
       <c r="J22" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="K22" t="s">
-        <v>868</v>
       </c>
       <c r="L22" t="s">
         <v>868</v>
@@ -9110,9 +9101,6 @@
       <c r="J38" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K38" t="s">
-        <v>868</v>
-      </c>
       <c r="L38" t="s">
         <v>139</v>
       </c>
@@ -9421,9 +9409,6 @@
       </c>
       <c r="J46" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="K46" t="s">
-        <v>868</v>
       </c>
       <c r="L46" t="s">
         <v>139</v>
@@ -10708,9 +10693,6 @@
       <c r="J82" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K82" t="s">
-        <v>868</v>
-      </c>
       <c r="L82" t="s">
         <v>139</v>
       </c>
@@ -10766,9 +10748,6 @@
       <c r="J83" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K83" t="s">
-        <v>868</v>
-      </c>
       <c r="L83" t="s">
         <v>139</v>
       </c>
@@ -10824,9 +10803,6 @@
       <c r="J84" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K84" t="s">
-        <v>868</v>
-      </c>
       <c r="L84" t="s">
         <v>139</v>
       </c>
@@ -10882,9 +10858,6 @@
       <c r="J85" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K85" t="s">
-        <v>868</v>
-      </c>
       <c r="L85" t="s">
         <v>139</v>
       </c>
@@ -10940,9 +10913,6 @@
       <c r="J86" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K86" t="s">
-        <v>868</v>
-      </c>
       <c r="L86" t="s">
         <v>139</v>
       </c>
@@ -10998,9 +10968,6 @@
       <c r="J87" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K87" t="s">
-        <v>868</v>
-      </c>
       <c r="L87" t="s">
         <v>139</v>
       </c>
@@ -11056,9 +11023,6 @@
       <c r="J88" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K88" t="s">
-        <v>868</v>
-      </c>
       <c r="L88" t="s">
         <v>139</v>
       </c>
@@ -11114,9 +11078,6 @@
       <c r="J89" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K89" t="s">
-        <v>868</v>
-      </c>
       <c r="L89" t="s">
         <v>139</v>
       </c>
@@ -11172,9 +11133,6 @@
       <c r="J90" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K90" t="s">
-        <v>868</v>
-      </c>
       <c r="L90" t="s">
         <v>139</v>
       </c>
@@ -11230,9 +11188,6 @@
       <c r="J91" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K91" t="s">
-        <v>868</v>
-      </c>
       <c r="L91" t="s">
         <v>139</v>
       </c>
@@ -11288,9 +11243,6 @@
       <c r="J92" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K92" t="s">
-        <v>868</v>
-      </c>
       <c r="L92" t="s">
         <v>139</v>
       </c>
@@ -11346,9 +11298,6 @@
       <c r="J93" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K93" t="s">
-        <v>868</v>
-      </c>
       <c r="L93" t="s">
         <v>139</v>
       </c>
@@ -11404,9 +11353,6 @@
       <c r="J94" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K94" t="s">
-        <v>868</v>
-      </c>
       <c r="L94" t="s">
         <v>139</v>
       </c>
@@ -11462,9 +11408,6 @@
       <c r="J95" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K95" t="s">
-        <v>868</v>
-      </c>
       <c r="L95" t="s">
         <v>139</v>
       </c>
@@ -11520,9 +11463,6 @@
       <c r="J96" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K96" t="s">
-        <v>868</v>
-      </c>
       <c r="L96" t="s">
         <v>139</v>
       </c>
@@ -11578,9 +11518,6 @@
       <c r="J97" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K97" t="s">
-        <v>868</v>
-      </c>
       <c r="L97" t="s">
         <v>139</v>
       </c>
@@ -11636,9 +11573,6 @@
       <c r="J98" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K98" t="s">
-        <v>868</v>
-      </c>
       <c r="L98" t="s">
         <v>139</v>
       </c>
@@ -11694,9 +11628,6 @@
       <c r="J99" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="K99" t="s">
-        <v>868</v>
-      </c>
       <c r="L99" t="s">
         <v>139</v>
       </c>
@@ -11751,9 +11682,6 @@
       </c>
       <c r="J100" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="K100" t="s">
-        <v>868</v>
       </c>
       <c r="L100" t="s">
         <v>139</v>
@@ -21183,7 +21111,7 @@
       <c r="E377" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="F377" s="56">
+      <c r="F377" s="44">
         <v>45446</v>
       </c>
       <c r="G377" t="s">

--- a/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDRADIOLOGY_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
+++ b/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDRADIOLOGY_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzamparo\Documents\FSE 2.0\it-fse-accreditamento\GATEWAY\S1#111MEDARCHIVER\MEDARCHIVER\MEDRADIOLOGY_FSE2.0\1.0.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4782C8C1-7107-452E-9E02-A92D8D956E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8610C7-23F6-4818-875E-B48FE360DC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4600,9 +4600,6 @@
     <t>subject_application_version: 1.0.0.0</t>
   </si>
   <si>
-    <t>subject_application_id: MEDLIS_FSE2.0</t>
-  </si>
-  <si>
     <t>Per eseguire il test è stato volontariamente modificato il campo purpose_of_use, cosa non possibile da parte dell'utente finale.</t>
   </si>
   <si>
@@ -4879,6 +4876,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.5618d18dcd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>subject_application_id: MEDRADIOLOGY_FSE2.0</t>
   </si>
 </sst>
 </file>
@@ -7813,10 +7813,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K91" sqref="K91"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="43" t="s">
-        <v>859</v>
+        <v>940</v>
       </c>
       <c r="D3" s="42"/>
       <c r="F3" s="12"/>
@@ -8395,13 +8395,13 @@
         <v>45441</v>
       </c>
       <c r="G19" s="35" t="s">
+        <v>927</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>928</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="I19" s="35" t="s">
         <v>929</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>930</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>139</v>
@@ -8439,22 +8439,22 @@
         <v>45440</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H20" s="35" t="s">
+        <v>895</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>896</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>897</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>139</v>
       </c>
       <c r="L20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
@@ -8486,22 +8486,22 @@
         <v>45440</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H21" s="35" t="s">
+        <v>909</v>
+      </c>
+      <c r="I21" s="35" t="s">
         <v>910</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>911</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>139</v>
       </c>
       <c r="L21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
@@ -8533,22 +8533,22 @@
         <v>45440</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H22" s="35" t="s">
+        <v>911</v>
+      </c>
+      <c r="I22" s="35" t="s">
         <v>912</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>913</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>139</v>
       </c>
       <c r="L22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
@@ -9090,10 +9090,10 @@
         <v>45440</v>
       </c>
       <c r="G38" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="H38" s="35" t="s">
         <v>869</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>870</v>
       </c>
       <c r="I38" s="35" t="s">
         <v>849</v>
@@ -9114,12 +9114,12 @@
         <v>139</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q38" s="33"/>
       <c r="R38" s="36"/>
       <c r="S38" s="37" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="T38" s="38" t="s">
         <v>104</v>
@@ -9154,7 +9154,7 @@
       <c r="N39" s="33"/>
       <c r="O39" s="33"/>
       <c r="P39" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q39" s="33"/>
       <c r="R39" s="36"/>
@@ -9399,10 +9399,10 @@
         <v>45440</v>
       </c>
       <c r="G46" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="H46" s="35" t="s">
         <v>866</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>867</v>
       </c>
       <c r="I46" s="35" t="s">
         <v>849</v>
@@ -9423,12 +9423,12 @@
         <v>139</v>
       </c>
       <c r="P46" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q46" s="33"/>
       <c r="R46" s="36"/>
       <c r="S46" s="37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T46" s="38" t="s">
         <v>104</v>
@@ -9463,7 +9463,7 @@
       <c r="N47" s="33"/>
       <c r="O47" s="33"/>
       <c r="P47" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q47" s="33"/>
       <c r="R47" s="36"/>
@@ -10682,13 +10682,13 @@
         <v>45440</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H82" s="35" t="s">
+        <v>913</v>
+      </c>
+      <c r="I82" s="35" t="s">
         <v>914</v>
-      </c>
-      <c r="I82" s="35" t="s">
-        <v>915</v>
       </c>
       <c r="J82" s="33" t="s">
         <v>139</v>
@@ -10706,12 +10706,12 @@
         <v>139</v>
       </c>
       <c r="P82" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q82" s="25"/>
       <c r="R82" s="26"/>
       <c r="S82" s="37" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="T82" s="28" t="s">
         <v>104</v>
@@ -10737,13 +10737,13 @@
         <v>45440</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H83" s="35" t="s">
+        <v>915</v>
+      </c>
+      <c r="I83" s="35" t="s">
         <v>916</v>
-      </c>
-      <c r="I83" s="35" t="s">
-        <v>917</v>
       </c>
       <c r="J83" s="33" t="s">
         <v>139</v>
@@ -10761,12 +10761,12 @@
         <v>139</v>
       </c>
       <c r="P83" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q83" s="25"/>
       <c r="R83" s="26"/>
       <c r="S83" s="37" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="T83" s="28" t="s">
         <v>104</v>
@@ -10792,13 +10792,13 @@
         <v>45440</v>
       </c>
       <c r="G84" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H84" s="35" t="s">
+        <v>917</v>
+      </c>
+      <c r="I84" s="35" t="s">
         <v>918</v>
-      </c>
-      <c r="I84" s="35" t="s">
-        <v>919</v>
       </c>
       <c r="J84" s="33" t="s">
         <v>139</v>
@@ -10810,18 +10810,18 @@
         <v>139</v>
       </c>
       <c r="N84" s="33" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O84" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P84" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q84" s="25"/>
       <c r="R84" s="26"/>
       <c r="S84" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T84" s="28" t="s">
         <v>104</v>
@@ -10847,13 +10847,13 @@
         <v>45440</v>
       </c>
       <c r="G85" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H85" s="35" t="s">
+        <v>920</v>
+      </c>
+      <c r="I85" s="35" t="s">
         <v>921</v>
-      </c>
-      <c r="I85" s="35" t="s">
-        <v>922</v>
       </c>
       <c r="J85" s="33" t="s">
         <v>139</v>
@@ -10865,18 +10865,18 @@
         <v>139</v>
       </c>
       <c r="N85" s="33" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="O85" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P85" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q85" s="25"/>
       <c r="R85" s="26"/>
       <c r="S85" s="37" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="T85" s="28" t="s">
         <v>104</v>
@@ -10902,13 +10902,13 @@
         <v>45440</v>
       </c>
       <c r="G86" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H86" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="I86" s="35" t="s">
         <v>924</v>
-      </c>
-      <c r="I86" s="35" t="s">
-        <v>925</v>
       </c>
       <c r="J86" s="33" t="s">
         <v>139</v>
@@ -10920,18 +10920,18 @@
         <v>139</v>
       </c>
       <c r="N86" s="33" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O86" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P86" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q86" s="25"/>
       <c r="R86" s="26"/>
       <c r="S86" s="37" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="T86" s="28" t="s">
         <v>104</v>
@@ -10957,13 +10957,13 @@
         <v>45440</v>
       </c>
       <c r="G87" s="35" t="s">
+        <v>870</v>
+      </c>
+      <c r="H87" s="35" t="s">
         <v>871</v>
       </c>
-      <c r="H87" s="35" t="s">
+      <c r="I87" s="35" t="s">
         <v>872</v>
-      </c>
-      <c r="I87" s="35" t="s">
-        <v>873</v>
       </c>
       <c r="J87" s="33" t="s">
         <v>139</v>
@@ -10981,12 +10981,12 @@
         <v>139</v>
       </c>
       <c r="P87" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q87" s="25"/>
       <c r="R87" s="26"/>
       <c r="S87" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T87" s="28" t="s">
         <v>104</v>
@@ -11012,13 +11012,13 @@
         <v>45440</v>
       </c>
       <c r="G88" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H88" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="I88" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I88" s="35" t="s">
-        <v>875</v>
       </c>
       <c r="J88" s="33" t="s">
         <v>139</v>
@@ -11030,18 +11030,18 @@
         <v>139</v>
       </c>
       <c r="N88" s="33" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="O88" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P88" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q88" s="25"/>
       <c r="R88" s="26"/>
       <c r="S88" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T88" s="28" t="s">
         <v>104</v>
@@ -11067,13 +11067,13 @@
         <v>45441</v>
       </c>
       <c r="G89" s="35" t="s">
+        <v>933</v>
+      </c>
+      <c r="H89" s="35" t="s">
         <v>934</v>
       </c>
-      <c r="H89" s="35" t="s">
+      <c r="I89" s="35" t="s">
         <v>935</v>
-      </c>
-      <c r="I89" s="35" t="s">
-        <v>936</v>
       </c>
       <c r="J89" s="33" t="s">
         <v>139</v>
@@ -11085,18 +11085,18 @@
         <v>139</v>
       </c>
       <c r="N89" s="33" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="O89" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P89" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q89" s="25"/>
       <c r="R89" s="26"/>
       <c r="S89" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T89" s="28" t="s">
         <v>104</v>
@@ -11122,13 +11122,13 @@
         <v>45441</v>
       </c>
       <c r="G90" s="35" t="s">
+        <v>930</v>
+      </c>
+      <c r="H90" s="35" t="s">
         <v>931</v>
       </c>
-      <c r="H90" s="35" t="s">
+      <c r="I90" s="35" t="s">
         <v>932</v>
-      </c>
-      <c r="I90" s="35" t="s">
-        <v>933</v>
       </c>
       <c r="J90" s="33" t="s">
         <v>139</v>
@@ -11140,18 +11140,18 @@
         <v>139</v>
       </c>
       <c r="N90" s="33" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O90" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P90" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q90" s="25"/>
       <c r="R90" s="26"/>
       <c r="S90" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T90" s="28" t="s">
         <v>104</v>
@@ -11177,13 +11177,13 @@
         <v>45440</v>
       </c>
       <c r="G91" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H91" s="35" t="s">
+        <v>877</v>
+      </c>
+      <c r="I91" s="35" t="s">
         <v>878</v>
-      </c>
-      <c r="I91" s="35" t="s">
-        <v>879</v>
       </c>
       <c r="J91" s="33" t="s">
         <v>139</v>
@@ -11195,18 +11195,18 @@
         <v>139</v>
       </c>
       <c r="N91" s="33" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="O91" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P91" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q91" s="25"/>
       <c r="R91" s="26"/>
       <c r="S91" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T91" s="28" t="s">
         <v>104</v>
@@ -11232,13 +11232,13 @@
         <v>45440</v>
       </c>
       <c r="G92" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H92" s="35" t="s">
+        <v>880</v>
+      </c>
+      <c r="I92" s="35" t="s">
         <v>881</v>
-      </c>
-      <c r="I92" s="35" t="s">
-        <v>882</v>
       </c>
       <c r="J92" s="33" t="s">
         <v>139</v>
@@ -11250,18 +11250,18 @@
         <v>139</v>
       </c>
       <c r="N92" s="33" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O92" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P92" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q92" s="25"/>
       <c r="R92" s="26"/>
       <c r="S92" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T92" s="28" t="s">
         <v>104</v>
@@ -11287,13 +11287,13 @@
         <v>45440</v>
       </c>
       <c r="G93" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H93" s="35" t="s">
+        <v>883</v>
+      </c>
+      <c r="I93" s="35" t="s">
         <v>884</v>
-      </c>
-      <c r="I93" s="35" t="s">
-        <v>885</v>
       </c>
       <c r="J93" s="33" t="s">
         <v>139</v>
@@ -11305,18 +11305,18 @@
         <v>139</v>
       </c>
       <c r="N93" s="33" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O93" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P93" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q93" s="25"/>
       <c r="R93" s="26"/>
       <c r="S93" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T93" s="28" t="s">
         <v>104</v>
@@ -11342,13 +11342,13 @@
         <v>45440</v>
       </c>
       <c r="G94" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H94" s="35" t="s">
+        <v>886</v>
+      </c>
+      <c r="I94" s="35" t="s">
         <v>887</v>
-      </c>
-      <c r="I94" s="35" t="s">
-        <v>888</v>
       </c>
       <c r="J94" s="33" t="s">
         <v>139</v>
@@ -11360,18 +11360,18 @@
         <v>139</v>
       </c>
       <c r="N94" s="33" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="O94" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P94" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q94" s="25"/>
       <c r="R94" s="26"/>
       <c r="S94" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T94" s="28" t="s">
         <v>104</v>
@@ -11397,13 +11397,13 @@
         <v>45440</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H95" s="35" t="s">
+        <v>889</v>
+      </c>
+      <c r="I95" s="35" t="s">
         <v>890</v>
-      </c>
-      <c r="I95" s="35" t="s">
-        <v>891</v>
       </c>
       <c r="J95" s="33" t="s">
         <v>139</v>
@@ -11415,18 +11415,18 @@
         <v>139</v>
       </c>
       <c r="N95" s="33" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O95" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P95" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q95" s="25"/>
       <c r="R95" s="26"/>
       <c r="S95" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T95" s="28" t="s">
         <v>104</v>
@@ -11452,13 +11452,13 @@
         <v>45440</v>
       </c>
       <c r="G96" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H96" s="35" t="s">
+        <v>892</v>
+      </c>
+      <c r="I96" s="35" t="s">
         <v>893</v>
-      </c>
-      <c r="I96" s="35" t="s">
-        <v>894</v>
       </c>
       <c r="J96" s="33" t="s">
         <v>139</v>
@@ -11470,18 +11470,18 @@
         <v>139</v>
       </c>
       <c r="N96" s="33" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O96" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P96" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q96" s="25"/>
       <c r="R96" s="26"/>
       <c r="S96" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T96" s="28" t="s">
         <v>104</v>
@@ -11507,13 +11507,13 @@
         <v>45440</v>
       </c>
       <c r="G97" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H97" s="35" t="s">
+        <v>897</v>
+      </c>
+      <c r="I97" s="35" t="s">
         <v>898</v>
-      </c>
-      <c r="I97" s="35" t="s">
-        <v>899</v>
       </c>
       <c r="J97" s="33" t="s">
         <v>139</v>
@@ -11525,18 +11525,18 @@
         <v>139</v>
       </c>
       <c r="N97" s="33" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O97" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P97" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q97" s="25"/>
       <c r="R97" s="26"/>
       <c r="S97" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T97" s="28" t="s">
         <v>104</v>
@@ -11562,13 +11562,13 @@
         <v>45440</v>
       </c>
       <c r="G98" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H98" s="35" t="s">
+        <v>900</v>
+      </c>
+      <c r="I98" s="35" t="s">
         <v>901</v>
-      </c>
-      <c r="I98" s="35" t="s">
-        <v>902</v>
       </c>
       <c r="J98" s="33" t="s">
         <v>139</v>
@@ -11580,18 +11580,18 @@
         <v>139</v>
       </c>
       <c r="N98" s="33" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O98" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P98" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q98" s="25"/>
       <c r="R98" s="26"/>
       <c r="S98" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T98" s="28" t="s">
         <v>104</v>
@@ -11617,13 +11617,13 @@
         <v>45440</v>
       </c>
       <c r="G99" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H99" s="35" t="s">
+        <v>903</v>
+      </c>
+      <c r="I99" s="35" t="s">
         <v>904</v>
-      </c>
-      <c r="I99" s="35" t="s">
-        <v>905</v>
       </c>
       <c r="J99" s="33" t="s">
         <v>139</v>
@@ -11635,18 +11635,18 @@
         <v>139</v>
       </c>
       <c r="N99" s="33" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O99" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P99" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q99" s="25"/>
       <c r="R99" s="26"/>
       <c r="S99" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T99" s="28" t="s">
         <v>104</v>
@@ -11672,13 +11672,13 @@
         <v>45440</v>
       </c>
       <c r="G100" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H100" s="35" t="s">
+        <v>906</v>
+      </c>
+      <c r="I100" s="35" t="s">
         <v>907</v>
-      </c>
-      <c r="I100" s="35" t="s">
-        <v>908</v>
       </c>
       <c r="J100" s="33" t="s">
         <v>139</v>
@@ -11690,18 +11690,18 @@
         <v>139</v>
       </c>
       <c r="N100" s="33" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O100" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P100" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q100" s="25"/>
       <c r="R100" s="26"/>
       <c r="S100" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T100" s="28" t="s">
         <v>104</v>
@@ -21115,13 +21115,13 @@
         <v>45446</v>
       </c>
       <c r="G377" t="s">
+        <v>937</v>
+      </c>
+      <c r="H377" t="s">
         <v>938</v>
       </c>
-      <c r="H377" t="s">
+      <c r="I377" t="s">
         <v>939</v>
-      </c>
-      <c r="I377" t="s">
-        <v>940</v>
       </c>
       <c r="J377" s="33" t="s">
         <v>139</v>

--- a/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDRADIOLOGY_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
+++ b/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDRADIOLOGY_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzamparo\Documents\FSE 2.0\it-fse-accreditamento\GATEWAY\S1#111MEDARCHIVER\MEDARCHIVER\MEDRADIOLOGY_FSE2.0\1.0.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8610C7-23F6-4818-875E-B48FE360DC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD653CE6-8348-4F55-9BB1-1DA8BBF09F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4729,12 +4729,6 @@
 			ICD-9-CM @codeSystem='2.16.840.1.113883.6.103']</t>
   </si>
   <si>
-    <t>90e629cf5f6ecd11</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.25cb0a8d47^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>7de650e0a2f0a2c1</t>
   </si>
   <si>
@@ -4777,18 +4771,6 @@
 			ICD-9-CM @codeSystem='2.16.840.1.113883.6.103']</t>
   </si>
   <si>
-    <t>7c960a28185dbb30</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.4c54000423^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>03692cad5b0d03dd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.ea45a6774c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2f2db7246997a5c0</t>
   </si>
   <si>
@@ -4837,15 +4819,6 @@
     <t xml:space="preserve">Per eseguire il test sono stati disattivati i controlli applicativi normalmente presenti (normalmente confidentialycode è preimpostato a livello utente e/o è possibile scegliere tra un set di valori validi) </t>
   </si>
   <si>
-    <t>2024-05-29T16:18:22Z</t>
-  </si>
-  <si>
-    <t>9f3489c7662fa7ed</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.03c459c71f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-05-29T16:25:54Z</t>
   </si>
   <si>
@@ -4869,16 +4842,43 @@
 			ICD-9-CM @codeSystem='2.16.840.1.113883.6.103']</t>
   </si>
   <si>
-    <t>2024-06-03T09:28:53Z</t>
-  </si>
-  <si>
-    <t>0ceeeec1adf9cc7b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.5618d18dcd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>subject_application_id: MEDRADIOLOGY_FSE2.0</t>
+  </si>
+  <si>
+    <t>2024-06-25T12:49:10Z</t>
+  </si>
+  <si>
+    <t>a8ae87b623182f29</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.f6403b4c1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-25T12:49:13Z</t>
+  </si>
+  <si>
+    <t>049241b2f864d202</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.e5c1e3c542^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>97c35b4ac02b4d33</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.e41a9986ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7784b849e687ead4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.ac1832b31a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>318e13c237d4f39e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.a4062566be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5207,7 +5207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5328,7 +5328,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7813,10 +7812,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7854,14 +7853,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>856</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="49"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7879,12 +7878,12 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="43" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="D3" s="42"/>
       <c r="F3" s="12"/>
@@ -7904,8 +7903,8 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="43" t="s">
         <v>857</v>
       </c>
@@ -7928,8 +7927,8 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="43" t="s">
         <v>858</v>
       </c>
@@ -7951,8 +7950,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -8392,16 +8391,16 @@
         <v>68</v>
       </c>
       <c r="F19" s="34">
-        <v>45441</v>
+        <v>45468</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>139</v>
@@ -8436,16 +8435,16 @@
         <v>70</v>
       </c>
       <c r="F20" s="34">
-        <v>45440</v>
+        <v>45468</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>870</v>
+        <v>932</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>896</v>
+        <v>936</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>139</v>
@@ -8483,16 +8482,16 @@
         <v>72</v>
       </c>
       <c r="F21" s="34">
-        <v>45440</v>
+        <v>45468</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>870</v>
+        <v>932</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>909</v>
+        <v>937</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>139</v>
@@ -8530,16 +8529,16 @@
         <v>74</v>
       </c>
       <c r="F22" s="34">
-        <v>45440</v>
+        <v>45468</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>870</v>
+        <v>932</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>911</v>
+        <v>939</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>139</v>
@@ -10685,10 +10684,10 @@
         <v>870</v>
       </c>
       <c r="H82" s="35" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="I82" s="35" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="J82" s="33" t="s">
         <v>139</v>
@@ -10711,7 +10710,7 @@
       <c r="Q82" s="25"/>
       <c r="R82" s="26"/>
       <c r="S82" s="37" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="T82" s="28" t="s">
         <v>104</v>
@@ -10740,10 +10739,10 @@
         <v>870</v>
       </c>
       <c r="H83" s="35" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="I83" s="35" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="J83" s="33" t="s">
         <v>139</v>
@@ -10795,10 +10794,10 @@
         <v>870</v>
       </c>
       <c r="H84" s="35" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I84" s="35" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="J84" s="33" t="s">
         <v>139</v>
@@ -10810,7 +10809,7 @@
         <v>139</v>
       </c>
       <c r="N84" s="33" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="O84" s="33" t="s">
         <v>139</v>
@@ -10850,10 +10849,10 @@
         <v>870</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="I85" s="35" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="J85" s="33" t="s">
         <v>139</v>
@@ -10865,7 +10864,7 @@
         <v>139</v>
       </c>
       <c r="N85" s="33" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="O85" s="33" t="s">
         <v>139</v>
@@ -10905,10 +10904,10 @@
         <v>870</v>
       </c>
       <c r="H86" s="35" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="I86" s="35" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="J86" s="33" t="s">
         <v>139</v>
@@ -10920,7 +10919,7 @@
         <v>139</v>
       </c>
       <c r="N86" s="33" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="O86" s="33" t="s">
         <v>139</v>
@@ -11067,13 +11066,13 @@
         <v>45441</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="I89" s="35" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="J89" s="33" t="s">
         <v>139</v>
@@ -11085,7 +11084,7 @@
         <v>139</v>
       </c>
       <c r="N89" s="33" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="O89" s="33" t="s">
         <v>139</v>
@@ -11122,13 +11121,13 @@
         <v>45441</v>
       </c>
       <c r="G90" s="35" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="H90" s="35" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="I90" s="35" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="J90" s="33" t="s">
         <v>139</v>
@@ -11510,10 +11509,10 @@
         <v>870</v>
       </c>
       <c r="H97" s="35" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I97" s="35" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J97" s="33" t="s">
         <v>139</v>
@@ -11525,7 +11524,7 @@
         <v>139</v>
       </c>
       <c r="N97" s="33" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="O97" s="33" t="s">
         <v>139</v>
@@ -11565,10 +11564,10 @@
         <v>870</v>
       </c>
       <c r="H98" s="35" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I98" s="35" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="J98" s="33" t="s">
         <v>139</v>
@@ -11580,7 +11579,7 @@
         <v>139</v>
       </c>
       <c r="N98" s="33" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="O98" s="33" t="s">
         <v>139</v>
@@ -11620,10 +11619,10 @@
         <v>870</v>
       </c>
       <c r="H99" s="35" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I99" s="35" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J99" s="33" t="s">
         <v>139</v>
@@ -11635,7 +11634,7 @@
         <v>139</v>
       </c>
       <c r="N99" s="33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="O99" s="33" t="s">
         <v>139</v>
@@ -11675,10 +11674,10 @@
         <v>870</v>
       </c>
       <c r="H100" s="35" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I100" s="35" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J100" s="33" t="s">
         <v>139</v>
@@ -11690,7 +11689,7 @@
         <v>139</v>
       </c>
       <c r="N100" s="33" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="O100" s="33" t="s">
         <v>139</v>
@@ -21111,17 +21110,17 @@
       <c r="E377" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="F377" s="44">
-        <v>45446</v>
+      <c r="F377" s="34">
+        <v>45468</v>
       </c>
       <c r="G377" t="s">
-        <v>937</v>
-      </c>
-      <c r="H377" t="s">
-        <v>938</v>
+        <v>929</v>
+      </c>
+      <c r="H377" s="35" t="s">
+        <v>930</v>
       </c>
       <c r="I377" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="J377" s="33" t="s">
         <v>139</v>

--- a/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDRADIOLOGY_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
+++ b/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDRADIOLOGY_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzamparo\Documents\FSE 2.0\it-fse-accreditamento\GATEWAY\S1#111MEDARCHIVER\MEDARCHIVER\MEDRADIOLOGY_FSE2.0\1.0.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD653CE6-8348-4F55-9BB1-1DA8BBF09F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB824F7-ED65-4DBC-9197-A8F0721998B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4845,40 +4845,40 @@
     <t>subject_application_id: MEDRADIOLOGY_FSE2.0</t>
   </si>
   <si>
-    <t>2024-06-25T12:49:10Z</t>
-  </si>
-  <si>
-    <t>a8ae87b623182f29</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.f6403b4c1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-06-25T12:49:13Z</t>
-  </si>
-  <si>
-    <t>049241b2f864d202</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.e5c1e3c542^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>97c35b4ac02b4d33</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.e41a9986ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7784b849e687ead4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.ac1832b31a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>318e13c237d4f39e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.a4062566be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-07-03T09:43:39Z</t>
+  </si>
+  <si>
+    <t>9dca62c39adf6576</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.b02a15584d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-07-03T09:43:41Z</t>
+  </si>
+  <si>
+    <t>844f3a99024a3d6a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.832b25b005^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0e5b7287bca71f1b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.020f3f0e89^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1b4c73a5d8c34ab9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.506b50d2df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e3db6b5df30a116f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.6a61bd0224ea6cc5b44690d674184bacfc2c747288fa1d444f2f1cffc36736c0.6e521cd1b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5207,7 +5207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5350,6 +5350,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7815,7 +7816,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8390,16 +8391,16 @@
       <c r="E19" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="34">
-        <v>45468</v>
-      </c>
-      <c r="G19" s="35" t="s">
+      <c r="F19" s="56">
+        <v>45476</v>
+      </c>
+      <c r="G19" t="s">
         <v>932</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" t="s">
         <v>933</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" t="s">
         <v>934</v>
       </c>
       <c r="J19" s="33" t="s">
@@ -8434,16 +8435,16 @@
       <c r="E20" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="34">
-        <v>45468</v>
-      </c>
-      <c r="G20" s="35" t="s">
+      <c r="F20" s="56">
+        <v>45476</v>
+      </c>
+      <c r="G20" t="s">
         <v>932</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" t="s">
         <v>935</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" t="s">
         <v>936</v>
       </c>
       <c r="J20" s="33" t="s">
@@ -8481,16 +8482,16 @@
       <c r="E21" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="34">
-        <v>45468</v>
-      </c>
-      <c r="G21" s="35" t="s">
+      <c r="F21" s="56">
+        <v>45476</v>
+      </c>
+      <c r="G21" t="s">
         <v>932</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" t="s">
         <v>937</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" t="s">
         <v>938</v>
       </c>
       <c r="J21" s="33" t="s">
@@ -8528,16 +8529,16 @@
       <c r="E22" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="34">
-        <v>45468</v>
-      </c>
-      <c r="G22" s="35" t="s">
+      <c r="F22" s="56">
+        <v>45476</v>
+      </c>
+      <c r="G22" t="s">
         <v>932</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" t="s">
         <v>939</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" t="s">
         <v>940</v>
       </c>
       <c r="J22" s="33" t="s">
@@ -21110,13 +21111,13 @@
       <c r="E377" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="F377" s="34">
-        <v>45468</v>
+      <c r="F377" s="56">
+        <v>45476</v>
       </c>
       <c r="G377" t="s">
         <v>929</v>
       </c>
-      <c r="H377" s="35" t="s">
+      <c r="H377" t="s">
         <v>930</v>
       </c>
       <c r="I377" t="s">
